--- a/Listas de precios/minorista/SOGA REVESTIDA.xlsx
+++ b/Listas de precios/minorista/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/SOGA REVESTIDA.xlsx
+++ b/Listas de precios/minorista/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/SOGA REVESTIDA.xlsx
+++ b/Listas de precios/minorista/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
